--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail3 Features.xlsx
@@ -3003,7 +3003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,29 +3014,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3057,115 +3055,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3182,72 +3170,66 @@
         <v>2.120878736572177e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.145813210807782</v>
+        <v>1.227025779869403e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.709631946967768</v>
+        <v>2.494811967378421e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.227025779869403e-06</v>
+        <v>-0.08991931779633862</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.494811967378421e-06</v>
+        <v>0.237503842907807</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08991931779633862</v>
+        <v>0.06434958771663545</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.237503842907807</v>
+        <v>1.68883387470645</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06434958771663545</v>
+        <v>1.559468071188742</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.620353810720509</v>
+        <v>4.743198550001539</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.559468071188742</v>
+        <v>2.66196873913593e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.743198550001539</v>
+        <v>60801039.23942572</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.66196873913593e-15</v>
+        <v>1.815816482378089e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>60801039.23942572</v>
+        <v>9.840676519734652</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.815816482378089e-06</v>
+        <v>0.0001704122572573926</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9.840676519734652</v>
+        <v>8.838368618292408</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001704122572573926</v>
+        <v>1.391020849102709</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.838368618292408</v>
+        <v>0.0133120533727438</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.391020849102709</v>
+        <v>2.859916695272517</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0133120533727438</v>
+        <v>0.9497507916647069</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.859916695272517</v>
+        <v>1.843430644781544</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9497507916647069</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.843430644781544</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2064728918520306</v>
       </c>
     </row>
@@ -3262,72 +3244,66 @@
         <v>1.755167042966747e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.664905474390497</v>
+        <v>9.487584930575193e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.344718236475568</v>
+        <v>2.478261515285112e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.487584930575193e-07</v>
+        <v>-0.08151769273204271</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.478261515285112e-06</v>
+        <v>0.2127954980213512</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.08151769273204271</v>
+        <v>0.05180754471000756</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2127954980213512</v>
+        <v>1.644548453386837</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05180754471000756</v>
+        <v>1.527656767227886</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.572801153726248</v>
+        <v>4.303918962272863</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.527656767227886</v>
+        <v>3.23308698431968e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.303918962272863</v>
+        <v>50839682.26336283</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.23308698431968e-15</v>
+        <v>2.134989617120184e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>50839682.26336283</v>
+        <v>8.356473581152072</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.134989617120184e-06</v>
+        <v>0.0001695971828574837</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.356473581152072</v>
+        <v>8.712186943313734</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001695971828574837</v>
+        <v>1.556238534567482</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.712186943313734</v>
+        <v>0.01287279951913932</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.556238534567482</v>
+        <v>2.991841397938328</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01287279951913932</v>
+        <v>0.9478912199077674</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.991841397938328</v>
+        <v>1.811022265486455</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9478912199077674</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.811022265486455</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1779938206583348</v>
       </c>
     </row>
@@ -3342,72 +3318,66 @@
         <v>1.507493304953888e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.244834237810634</v>
+        <v>7.45020952692559e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.405384288477129</v>
+        <v>2.465791401268192e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.45020952692559e-07</v>
+        <v>-0.07190410740461232</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.465791401268192e-06</v>
+        <v>0.1855554406473832</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.07190410740461232</v>
+        <v>0.03951769946568923</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1855554406473832</v>
+        <v>1.659292000223128</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03951769946568923</v>
+        <v>1.682240039497399</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.581519540388774</v>
+        <v>4.296052272355566</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.682240039497399</v>
+        <v>3.244938320170881e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.296052272355566</v>
+        <v>53084922.00530746</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.244938320170881e-15</v>
+        <v>2.06256184918704e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>53084922.00530746</v>
+        <v>9.144265209974433</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.06256184918704e-06</v>
+        <v>0.0001301482889280531</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9.144265209974433</v>
+        <v>8.91165646972572</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001301482889280531</v>
+        <v>1.253633818336409</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.91165646972572</v>
+        <v>0.01033606748836428</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.253633818336409</v>
+        <v>3.059655767799061</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01033606748836428</v>
+        <v>0.9503308496872416</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.059655767799061</v>
+        <v>1.811516494757687</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9503308496872416</v>
+        <v>13</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.811516494757687</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1995620053382535</v>
       </c>
     </row>
@@ -3422,72 +3392,66 @@
         <v>1.340899624962609e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.9412011226732291</v>
+        <v>5.980798866546226e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.09569587202576635</v>
+        <v>2.45630284726865e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.980798866546226e-07</v>
+        <v>-0.06172494749761216</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.45630284726865e-06</v>
+        <v>0.1614391233195978</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06172494749761216</v>
+        <v>0.02981579389438702</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1614391233195978</v>
+        <v>1.636051558249771</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02981579389438702</v>
+        <v>1.64641779817855</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.556673008864549</v>
+        <v>4.36618219508113</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.64641779817855</v>
+        <v>3.141534631157555e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.36618219508113</v>
+        <v>56138888.09864271</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.141534631157555e-15</v>
+        <v>1.949624974689177e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>56138888.09864271</v>
+        <v>9.900781241646438</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.949624974689177e-06</v>
+        <v>0.0001261349961883658</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>9.900781241646438</v>
+        <v>8.718645354548467</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001261349961883658</v>
+        <v>1.294130751930545</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.718645354548467</v>
+        <v>0.009588123584247044</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.294130751930545</v>
+        <v>2.939655388813443</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009588123584247044</v>
+        <v>0.9505591063123908</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.939655388813443</v>
+        <v>1.818303223137444</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9505591063123908</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.818303223137444</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2082792826223427</v>
       </c>
     </row>
@@ -3502,72 +3466,66 @@
         <v>1.228988092661295e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7652508876714463</v>
+        <v>4.902102116782628e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6152046549342116</v>
+        <v>2.449017636517522e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.902102116782628e-07</v>
+        <v>-0.05220484118234311</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.449017636517522e-06</v>
+        <v>0.1409518819689525</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05220484118234311</v>
+        <v>0.02255780131344334</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1409518819689525</v>
+        <v>1.640025939749695</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02255780131344334</v>
+        <v>1.64326275158247</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.561928560947116</v>
+        <v>4.306320513328591</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.64326275158247</v>
+        <v>3.229481930584094e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.306320513328591</v>
+        <v>54973944.10641941</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.229481930584094e-15</v>
+        <v>1.995461243503471e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>54973944.10641941</v>
+        <v>9.759928858417728</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.995461243503471e-06</v>
+        <v>0.0001250182286443193</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>9.759928858417728</v>
+        <v>8.121792819475404</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001250182286443193</v>
+        <v>1.316234335657339</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.121792819475404</v>
+        <v>0.008246642250828929</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.316234335657339</v>
+        <v>2.937815895711275</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008246642250828929</v>
+        <v>0.9501489283139498</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.937815895711275</v>
+        <v>1.830616169179778</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9501489283139498</v>
+        <v>14</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.830616169179778</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2109586860764735</v>
       </c>
     </row>
@@ -3582,72 +3540,66 @@
         <v>1.152538121052712e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6906119124335975</v>
+        <v>4.146907405645546e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9065734171066464</v>
+        <v>2.443286350679706e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.146907405645546e-07</v>
+        <v>-0.04451688074723856</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.443286350679706e-06</v>
+        <v>0.1282553154237697</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04451688074723856</v>
+        <v>0.01841239965855685</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1282553154237697</v>
+        <v>1.622447059515227</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01841239965855685</v>
+        <v>1.586427137163936</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.538507005410778</v>
+        <v>4.289082338149891</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.586427137163936</v>
+        <v>3.255493204217783e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.289082338149891</v>
+        <v>54482092.81315137</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.255493204217783e-15</v>
+        <v>1.999427721362707e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>54482092.81315137</v>
+        <v>9.663275390723152</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.999427721362707e-06</v>
+        <v>0.0001195161155144749</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>9.663275390723152</v>
+        <v>6.986545191232667</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001195161155144749</v>
+        <v>1.371930875107178</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.986545191232667</v>
+        <v>0.005833798365732163</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.371930875107178</v>
+        <v>3.093987683291193</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.005833798365732163</v>
+        <v>0.9478493951296254</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.093987683291193</v>
+        <v>1.838426936477709</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9478493951296254</v>
+        <v>8</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.838426936477709</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2086022553716919</v>
       </c>
     </row>
@@ -3662,72 +3614,66 @@
         <v>1.09761266708505e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6766711595608281</v>
+        <v>3.619877644351947e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.9703838057367014</v>
+        <v>2.438659558596811e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.619877644351947e-07</v>
+        <v>-0.03789485159539714</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.438659558596811e-06</v>
+        <v>0.1226511409016611</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03789485159539714</v>
+        <v>0.01646840340309869</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1226511409016611</v>
+        <v>1.609010034318911</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01646840340309869</v>
+        <v>1.582340717981822</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.520333567104331</v>
+        <v>4.141159301435717</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.582340717981822</v>
+        <v>3.492220728245217e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.141159301435717</v>
+        <v>50143972.66174085</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.492220728245217e-15</v>
+        <v>2.156437412633091e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>50143972.66174085</v>
+        <v>8.780902639172162</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.156437412633091e-06</v>
+        <v>0.0001183308426530811</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8.780902639172162</v>
+        <v>6.496783927108126</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001183308426530811</v>
+        <v>1.988596645603354</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>6.496783927108126</v>
+        <v>0.004994532038004078</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.988596645603354</v>
+        <v>3.234575912987629</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.004994532038004078</v>
+        <v>0.9475850319949427</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.234575912987629</v>
+        <v>1.865459854243328</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9475850319949427</v>
+        <v>8</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.865459854243328</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1989472367156213</v>
       </c>
     </row>
@@ -3742,72 +3688,66 @@
         <v>1.056329845569642e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.693897834677948</v>
+        <v>3.257504218067806e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9171388417319033</v>
+        <v>2.434937372099008e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.257504218067806e-07</v>
+        <v>-0.03122373958611294</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.434937372099008e-06</v>
+        <v>0.1214840502623788</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03122373958611294</v>
+        <v>0.01572525650920405</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1214840502623788</v>
+        <v>1.586183772476827</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01572525650920405</v>
+        <v>1.584496794809031</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.496090947112512</v>
+        <v>4.028292994377692</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.584496794809031</v>
+        <v>3.690655072396455e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.028292994377692</v>
+        <v>48490038.46786806</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.690655072396455e-15</v>
+        <v>2.201180828083155e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>48490038.46786806</v>
+        <v>8.677777596104212</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.201180828083155e-06</v>
+        <v>0.0001093397434962848</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>8.677777596104212</v>
+        <v>7.121733561374585</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001093397434962848</v>
+        <v>1.43102102488636</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.121733561374585</v>
+        <v>0.00554561217279159</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.43102102488636</v>
+        <v>3.23101054354295</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00554561217279159</v>
+        <v>0.9471439772787916</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.23101054354295</v>
+        <v>1.858997836046519</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9471439772787916</v>
+        <v>9</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.858997836046519</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2105339857040871</v>
       </c>
     </row>
@@ -3822,72 +3762,66 @@
         <v>1.024843379184011e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.7244793008782358</v>
+        <v>3.257504218067806e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.806868112934565</v>
+        <v>2.432014925929789e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.257504218067806e-07</v>
+        <v>-0.02523794446847</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.432014925929789e-06</v>
+        <v>0.1219267662886623</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.02523794446847</v>
+        <v>0.0154983514274044</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1219267662886623</v>
+        <v>1.549763141059949</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0154983514274044</v>
+        <v>1.589780749875828</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.456027315611949</v>
+        <v>3.905630230780019</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.589780749875828</v>
+        <v>3.926117680108568e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.905630230780019</v>
+        <v>44163271.01439802</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.926117680108568e-15</v>
+        <v>2.369426747963017e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>44163271.01439802</v>
+        <v>7.657478355906823</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.369426747963017e-06</v>
+        <v>0.0001121845200511721</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7.657478355906823</v>
+        <v>7.798311492092914</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001121845200511721</v>
+        <v>1.16451312560052</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.798311492092914</v>
+        <v>0.006822351498351108</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.16451312560052</v>
+        <v>3.030995615274281</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006822351498351108</v>
+        <v>0.9463232445639665</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.030995615274281</v>
+        <v>1.849189396305453</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9463232445639665</v>
+        <v>9</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.849189396305453</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2192072542552096</v>
       </c>
     </row>
@@ -3902,72 +3836,66 @@
         <v>1.000498739277927e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.759951789843983</v>
+        <v>3.257504218067806e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.6739234740149316</v>
+        <v>2.429698136616686e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.257504218067806e-07</v>
+        <v>-0.02074124542023796</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.429698136616686e-06</v>
+        <v>0.1226713425891855</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02074124542023796</v>
+        <v>0.01547575243984668</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1226713425891855</v>
+        <v>1.539961840474772</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01547575243984668</v>
+        <v>1.590655352491582</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.445520442578985</v>
+        <v>3.851609868556996</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.590655352491582</v>
+        <v>4.037020721668685e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.851609868556996</v>
+        <v>43096208.5140799</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.037020721668685e-15</v>
+        <v>2.423832092948121e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>43096208.5140799</v>
+        <v>7.497890717129787</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.423832092948121e-06</v>
+        <v>0.0001171877886673618</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>7.497890717129787</v>
+        <v>7.262979390989322</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001171877886673618</v>
+        <v>1.301701073022106</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.262979390989322</v>
+        <v>0.0061817577626812</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.301701073022106</v>
+        <v>3.085199038499605</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0061817577626812</v>
+        <v>0.9456069959314279</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.085199038499605</v>
+        <v>1.863012178592964</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9456069959314279</v>
+        <v>9</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.863012178592964</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2128011392470883</v>
       </c>
     </row>
@@ -3982,72 +3910,66 @@
         <v>9.810647133482351e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.7963253279280369</v>
+        <v>3.257504218067806e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.5352670753541688</v>
+        <v>2.427805299901709e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.257504218067806e-07</v>
+        <v>-0.01781529142990851</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.427805299901709e-06</v>
+        <v>0.1240576257700727</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.01781529142990851</v>
+        <v>0.01570695058413933</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1240576257700727</v>
+        <v>1.544411203470549</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01570695058413933</v>
+        <v>1.549141458227407</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.449967930191455</v>
+        <v>3.815240203625035</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.549141458227407</v>
+        <v>4.114355256464694e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.815240203625035</v>
+        <v>43791688.17072138</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.114355256464694e-15</v>
+        <v>2.415612530497041e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>43791688.17072138</v>
+        <v>7.890148253559418</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.415612530497041e-06</v>
+        <v>0.0001220743408369577</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7.890148253559418</v>
+        <v>7.251650369890283</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001220743408369577</v>
+        <v>1.474998000075406</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.251650369890283</v>
+        <v>0.006419454156078165</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.474998000075406</v>
+        <v>3.061296939163403</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.006419454156078165</v>
+        <v>0.9460794815678166</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.061296939163403</v>
+        <v>1.87335313381928</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9460794815678166</v>
+        <v>9</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.87335313381928</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2132441000049403</v>
       </c>
     </row>
@@ -4062,72 +3984,66 @@
         <v>9.638523590202565e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.832236080956846</v>
+        <v>3.257504218067806e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.3930179358220114</v>
+        <v>2.426127189468307e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.257504218067806e-07</v>
+        <v>-0.01710547680525191</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.426127189468307e-06</v>
+        <v>0.1262130624104388</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.01710547680525191</v>
+        <v>0.01622231811016364</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1262130624104388</v>
+        <v>1.545615846596685</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01622231811016364</v>
+        <v>1.51607308038968</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.454849272290076</v>
+        <v>3.885190171132653</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.51607308038968</v>
+        <v>3.96753710856383e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.885190171132653</v>
+        <v>46317533.67625292</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.96753710856383e-15</v>
+        <v>2.283384913876054e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>46317533.67625292</v>
+        <v>8.511612610331893</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.283384913876054e-06</v>
+        <v>0.0001188557111371472</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>8.511612610331893</v>
+        <v>6.996263021366659</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001188557111371472</v>
+        <v>1.661865483925826</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.996263021366659</v>
+        <v>0.005817713247999745</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.661865483925826</v>
+        <v>3.129134478123744</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.005817713247999745</v>
+        <v>0.9439889820462193</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.129134478123744</v>
+        <v>1.851910395393662</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9439889820462193</v>
+        <v>9</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.851910395393662</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2197952826188418</v>
       </c>
     </row>
@@ -4142,72 +4058,66 @@
         <v>9.453045753903548e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.8674547152755182</v>
+        <v>3.257504218067806e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.236759912580303</v>
+        <v>2.424410148980743e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.257504218067806e-07</v>
+        <v>-0.01944219521376264</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.424410148980743e-06</v>
+        <v>0.1274674983878347</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.01944219521376264</v>
+        <v>0.01662336716519361</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1274674983878347</v>
+        <v>1.560549946949024</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01662336716519361</v>
+        <v>1.507421233828754</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.466308787957899</v>
+        <v>4.05563208254384</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.507421233828754</v>
+        <v>3.641065237370579e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.05563208254384</v>
+        <v>53283736.37470055</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.641065237370579e-15</v>
+        <v>2.028862810882004e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>53283736.37470055</v>
+        <v>10.33755426152767</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.028862810882004e-06</v>
+        <v>0.0001091959196011419</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>10.33755426152767</v>
+        <v>7.097190848523519</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001091959196011419</v>
+        <v>1.689283020190032</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.097190848523519</v>
+        <v>0.005500211348916239</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.689283020190032</v>
+        <v>3.225239696795606</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.005500211348916239</v>
+        <v>0.9438382101730091</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.225239696795606</v>
+        <v>1.855257904761742</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9438382101730091</v>
+        <v>9</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.855257904761742</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2362849111109529</v>
       </c>
     </row>
@@ -4222,72 +4132,66 @@
         <v>9.201532450078969e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8966183849274918</v>
+        <v>3.257504218067806e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.06029886803359608</v>
+        <v>2.422344365319752e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.257504218067806e-07</v>
+        <v>-0.02530633752722355</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.422344365319752e-06</v>
+        <v>0.1243018873531073</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02530633752722355</v>
+        <v>0.01608351870918565</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1243018873531073</v>
+        <v>1.549755297253226</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01608351870918565</v>
+        <v>1.486372161205897</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.453719674097379</v>
+        <v>4.421124315309918</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.486372161205897</v>
+        <v>3.063938943135534e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.421124315309918</v>
+        <v>63337603.46836239</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.063938943135534e-15</v>
+        <v>1.704472336938884e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>63337603.46836239</v>
+        <v>12.29145682929268</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.704472336938884e-06</v>
+        <v>0.0001040939116066314</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>12.29145682929268</v>
+        <v>8.336726591297701</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001040939116066314</v>
+        <v>1.505592923956272</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.336726591297701</v>
+        <v>0.007234632018373058</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.505592923956272</v>
+        <v>3.170636435895627</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.007234632018373058</v>
+        <v>0.94435181736255</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.170636435895627</v>
+        <v>1.865584053504088</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.94435181736255</v>
+        <v>14</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.865584053504088</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.262298695254696</v>
       </c>
     </row>
@@ -4302,72 +4206,66 @@
         <v>8.829092310338366e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.8945550203377203</v>
+        <v>3.257504218067806e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.07445354030793361</v>
+        <v>2.419744676977058e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.257504218067806e-07</v>
+        <v>-0.03223746237530217</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.419744676977058e-06</v>
+        <v>0.1219526966876641</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03223746237530217</v>
+        <v>0.01590817165030155</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1219526966876641</v>
+        <v>1.593249298919146</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01590817165030155</v>
+        <v>1.588220721359608</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.492265188068116</v>
+        <v>4.520146094511043</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.588220721359608</v>
+        <v>2.782369466475677e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.520146094511043</v>
+        <v>67535810.46928209</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.782369466475677e-15</v>
+        <v>1.647216440117933e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>67535810.46928209</v>
+        <v>12.69062557381371</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.647216440117933e-06</v>
+        <v>0.0001072593229144213</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>12.69062557381371</v>
+        <v>7.594379209490407</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001072593229144213</v>
+        <v>2.08193427239087</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.594379209490407</v>
+        <v>0.006186138071010033</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.08193427239087</v>
+        <v>3.409458218694011</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.006186138071010033</v>
+        <v>0.9503224033308628</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.409458218694011</v>
+        <v>1.816547705944387</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9503224033308628</v>
+        <v>14</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.816547705944387</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2415939041454193</v>
       </c>
     </row>
@@ -4382,72 +4280,66 @@
         <v>8.33958357280955e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.8333988982202342</v>
+        <v>3.257504218067806e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.04688993000188546</v>
+        <v>2.416702770320792e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.257504218067806e-07</v>
+        <v>-0.038373683317529</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.416702770320792e-06</v>
+        <v>0.1274873386771416</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.038373683317529</v>
+        <v>0.01772429570042724</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1274873386771416</v>
+        <v>1.612543577368276</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01772429570042724</v>
+        <v>1.514233573086799</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.50737208482924</v>
+        <v>4.894991298758576</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.514233573086799</v>
+        <v>2.003778057164006e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.894991298758576</v>
+        <v>92767514.44704892</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.003778057164006e-15</v>
+        <v>1.207348928128557e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>92767514.44704892</v>
+        <v>17.24413672205072</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.207348928128557e-06</v>
+        <v>0.0001142119729919326</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>17.24413672205072</v>
+        <v>7.076832341195565</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001142119729919326</v>
+        <v>1.765682137283585</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.076832341195565</v>
+        <v>0.005719913319597492</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.765682137283585</v>
+        <v>3.260035152585718</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.005719913319597492</v>
+        <v>0.9509230040956833</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.260035152585718</v>
+        <v>1.802524230526707</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9509230040956833</v>
+        <v>14</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.802524230526707</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2443174976746894</v>
       </c>
     </row>
@@ -4462,72 +4354,66 @@
         <v>7.793060182735054e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.7110613301110056</v>
+        <v>3.150528698262554e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.1951740734888698</v>
+        <v>2.413452302833816e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.150528698262554e-07</v>
+        <v>-0.04158377349342548</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.413452302833816e-06</v>
+        <v>0.1364085467971312</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04158377349342548</v>
+        <v>0.02032996903481931</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1364085467971312</v>
+        <v>1.639226621113703</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02032996903481931</v>
+        <v>1.730795893542938</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.533510374797657</v>
+        <v>4.013180680277989</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.730795893542938</v>
+        <v>1.61405379313857e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.013180680277989</v>
+        <v>113334986.6142234</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.61405379313857e-15</v>
+        <v>9.987736150407512e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>113334986.6142234</v>
+        <v>20.7322291371644</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>9.987736150407512e-07</v>
+        <v>0.0001159035614314619</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>20.7322291371644</v>
+        <v>7.756696015386177</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001159035614314619</v>
+        <v>1.559724747811479</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.756696015386177</v>
+        <v>0.006973492281676552</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.559724747811479</v>
+        <v>3.167338273502083</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.006973492281676552</v>
+        <v>0.9557843316904081</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.167338273502083</v>
+        <v>1.785832316709988</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9557843316904081</v>
+        <v>17</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.785832316709988</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2616152206852292</v>
       </c>
     </row>
@@ -4542,72 +4428,66 @@
         <v>7.284460036821391e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.571982029420569</v>
+        <v>2.87882923281803e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.5068237107928222</v>
+        <v>2.410324431825857e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.87882923281803e-07</v>
+        <v>-0.04105788991026204</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.410324431825857e-06</v>
+        <v>0.1404304154552782</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04105788991026204</v>
+        <v>0.02139411994920833</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1404304154552782</v>
+        <v>1.650571633117897</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02139411994920833</v>
+        <v>1.684336413603192</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.550338722013475</v>
+        <v>4.034962931833123</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.684336413603192</v>
+        <v>1.596674288539912e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.034962931833123</v>
+        <v>111952046.1111629</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.596674288539912e-15</v>
+        <v>1.010497635323554e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>111952046.1111629</v>
+        <v>20.01153499705712</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.010497635323554e-06</v>
+        <v>0.0001023885333826611</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>20.01153499705712</v>
+        <v>7.310895452841639</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001023885333826611</v>
+        <v>1.483714746193641</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.310895452841639</v>
+        <v>0.005472584412376334</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.483714746193641</v>
+        <v>3.254304565956983</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.005472584412376334</v>
+        <v>0.9562608639906529</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.254304565956983</v>
+        <v>1.806390232554068</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9562608639906529</v>
+        <v>12</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.806390232554068</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2670693566550296</v>
       </c>
     </row>
@@ -4622,72 +4502,66 @@
         <v>6.861681375187352e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.4587941850398297</v>
+        <v>2.593880708141254e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.7368968561712852</v>
+        <v>2.407491143421855e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.593880708141254e-07</v>
+        <v>-0.03917656306847452</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.407491143421855e-06</v>
+        <v>0.1417288823682687</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.03917656306847452</v>
+        <v>0.02161165079035352</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1417288823682687</v>
+        <v>1.677282934488718</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02161165079035352</v>
+        <v>1.649409775166806</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.5802111549499</v>
+        <v>4.090423256630219</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.649409775166806</v>
+        <v>1.55367054589902e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.090423256630219</v>
+        <v>110322651.0680513</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.55367054589902e-15</v>
+        <v>1.030305090239023e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>110322651.0680513</v>
+        <v>18.90985990967626</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.030305090239023e-06</v>
+        <v>9.106909708590951e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>18.90985990967626</v>
+        <v>6.795557022192352</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>9.106909708590951e-05</v>
+        <v>1.31085982400498</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>6.795557022192352</v>
+        <v>0.004205534042469662</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.31085982400498</v>
+        <v>3.361091507538607</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.004205534042469662</v>
+        <v>0.9560058951158756</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.361091507538607</v>
+        <v>1.785096674514478</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9560058951158756</v>
+        <v>11</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.785096674514478</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2822555910377772</v>
       </c>
     </row>
@@ -4702,72 +4576,66 @@
         <v>6.512914605835246e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3761183608712224</v>
+        <v>2.380670253314148e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.8784047571738216</v>
+        <v>2.404915756746972e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.380670253314148e-07</v>
+        <v>-0.03822335608249301</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.404915756746972e-06</v>
+        <v>0.1451489011333061</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03822335608249301</v>
+        <v>0.02252402849777673</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1451489011333061</v>
+        <v>1.688944888981599</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02252402849777673</v>
+        <v>1.712956833287472</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.596867303874764</v>
+        <v>4.199992148487428</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.712956833287472</v>
+        <v>1.473663997071826e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.199992148487428</v>
+        <v>118565774.0472521</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.473663997071826e-15</v>
+        <v>9.64044349082162e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>118565774.0472521</v>
+        <v>20.71653677463869</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>9.64044349082162e-07</v>
+        <v>8.848139295998155e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>20.71653677463869</v>
+        <v>6.642041678297428</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>8.848139295998155e-05</v>
+        <v>1.373889048852717</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>6.642041678297428</v>
+        <v>0.003903508631046338</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.373889048852717</v>
+        <v>3.504013824666601</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.003903508631046338</v>
+        <v>0.957446872591653</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.504013824666601</v>
+        <v>1.765608582271029</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.957446872591653</v>
+        <v>11</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.765608582271029</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2843693642947589</v>
       </c>
     </row>
@@ -4782,72 +4650,66 @@
         <v>6.20410261755419e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3061388367313577</v>
+        <v>2.258509666480078e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9933986989206658</v>
+        <v>2.402468061612315e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.258509666480078e-07</v>
+        <v>-0.03903598169458995</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.402468061612315e-06</v>
+        <v>0.1514218638980326</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03903598169458995</v>
+        <v>0.02445002939115315</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1514218638980326</v>
+        <v>1.70379139942526</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02445002939115315</v>
+        <v>1.687610663630834</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.619406532250652</v>
+        <v>4.204731677204376</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.687610663630834</v>
+        <v>1.470343672752706e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.204731677204376</v>
+        <v>117635038.2207505</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.470343672752706e-15</v>
+        <v>9.742056517570507e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>117635038.2207505</v>
+        <v>20.34661900359417</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>9.742056517570507e-07</v>
+        <v>9.518050250812611e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>20.34661900359417</v>
+        <v>7.099211595423168</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>9.518050250812611e-05</v>
+        <v>1.416248426097221</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.099211595423168</v>
+        <v>0.004796983612035106</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.416248426097221</v>
+        <v>3.475090307089184</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.004796983612035106</v>
+        <v>0.9601949008356263</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.475090307089184</v>
+        <v>1.749092277423856</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9601949008356263</v>
+        <v>10</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.749092277423856</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2983729361111299</v>
       </c>
     </row>
@@ -4862,72 +4724,66 @@
         <v>5.913859384069622e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.2333362996863624</v>
+        <v>2.149779953100911e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.130414620796564</v>
+        <v>2.400081232877526e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.149779953100911e-07</v>
+        <v>-0.03956411937005302</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.400081232877526e-06</v>
+        <v>0.1579624458325901</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.03956411937005302</v>
+        <v>0.02651446629205239</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1579624458325901</v>
+        <v>1.715052102036488</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02651446629205239</v>
+        <v>1.596994316972359</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.635312948886185</v>
+        <v>4.689570433786404</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.596994316972359</v>
+        <v>1.182032191945201e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.689570433786404</v>
+        <v>148289823.1213196</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.182032191945201e-15</v>
+        <v>7.765452233200746e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>148289823.1213196</v>
+        <v>25.99273617682121</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>7.765452233200746e-07</v>
+        <v>9.563222210140214e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>25.99273617682121</v>
+        <v>8.001862248466152</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>9.563222210140214e-05</v>
+        <v>1.394720041514038</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.001862248466152</v>
+        <v>0.006123312001482121</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.394720041514038</v>
+        <v>3.405369937070895</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.006123312001482121</v>
+        <v>0.9597492328820489</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.405369937070895</v>
+        <v>1.73404263987827</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9597492328820489</v>
+        <v>10</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.73404263987827</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3354290661591303</v>
       </c>
     </row>
@@ -4942,72 +4798,66 @@
         <v>5.649452143317619e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1635276550042505</v>
+        <v>2.013893235195918e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.272990751620505</v>
+        <v>2.397820367358914e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.013893235195918e-07</v>
+        <v>-0.03838251277320866</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.397820367358914e-06</v>
+        <v>0.1633362842039068</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.03838251277320866</v>
+        <v>0.02814745294924182</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1633362842039068</v>
+        <v>1.756646769401029</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02814745294924182</v>
+        <v>1.934678011145617</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.686657399708085</v>
+        <v>3.619676105511317</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.934678011145617</v>
+        <v>9.36751322801239e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.619676105511317</v>
+        <v>185047905.5037611</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>9.36751322801239e-16</v>
+        <v>6.319796393742737e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>185047905.5037611</v>
+        <v>32.07692012394447</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.319796393742737e-07</v>
+        <v>7.839807879030959e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>32.07692012394447</v>
+        <v>6.616790702290504</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>7.839807879030959e-05</v>
+        <v>1.29428552101733</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>6.616790702290504</v>
+        <v>0.003432418350869348</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.29428552101733</v>
+        <v>3.516635657087428</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.003432418350869348</v>
+        <v>0.9608061673072742</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.516635657087428</v>
+        <v>1.679811089034569</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9608061673072742</v>
+        <v>9</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.679811089034569</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3910225931090803</v>
       </c>
     </row>
@@ -5384,7 +5234,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.623336308340346</v>
+        <v>1.656982435397712</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.265718420787595</v>
@@ -5473,7 +5323,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.627066094489625</v>
+        <v>1.66092697273462</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.243817272550723</v>
@@ -5562,7 +5412,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.648838229302196</v>
+        <v>1.682440350370877</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.212400584722014</v>
@@ -5651,7 +5501,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.658837014941082</v>
+        <v>1.692600462043353</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.28242398009981</v>
@@ -5740,7 +5590,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.66427823386771</v>
+        <v>1.698297220185192</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.265991706641771</v>
@@ -5829,7 +5679,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.68883629922278</v>
+        <v>1.718187217745365</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.904223227632942</v>
@@ -5918,7 +5768,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.791211837457453</v>
+        <v>1.80441216019704</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.017536922723096</v>
@@ -6007,7 +5857,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.808220412091199</v>
+        <v>1.823516614389077</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.914750748730742</v>
@@ -6096,7 +5946,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.818311335684909</v>
+        <v>1.833615986709915</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.408462436224943</v>
@@ -6185,7 +6035,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.832409179364659</v>
+        <v>1.846336382666702</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.246650913210414</v>
@@ -6274,7 +6124,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.811985301794659</v>
+        <v>1.826905639264953</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.333969334080987</v>
@@ -6363,7 +6213,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.802092770597977</v>
+        <v>1.81627236759278</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.145058775574754</v>
@@ -6452,7 +6302,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.824522626854193</v>
+        <v>1.833612307672228</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.387115068505854</v>
@@ -6541,7 +6391,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.823702369995194</v>
+        <v>1.834915557645336</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.357248024776598</v>
@@ -6630,7 +6480,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.85116041253883</v>
+        <v>1.858135870062114</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.907487742934726</v>
@@ -6719,7 +6569,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.859013904100016</v>
+        <v>1.866680205565123</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.857862865332565</v>
@@ -6808,7 +6658,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.853311429426498</v>
+        <v>1.865302051741971</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.057496862135434</v>
@@ -6897,7 +6747,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.846156750216052</v>
+        <v>1.85679708378732</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.975094419449615</v>
@@ -6986,7 +6836,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.889172433331757</v>
+        <v>1.884964573062467</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.905643909618742</v>
@@ -7075,7 +6925,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.886060471841574</v>
+        <v>1.880807256014794</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.152840114260825</v>
@@ -7164,7 +7014,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.877931730749562</v>
+        <v>1.870608233115663</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.054274357350134</v>
@@ -7253,7 +7103,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.88876463823123</v>
+        <v>1.882449975522528</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.070237595398359</v>
@@ -7342,7 +7192,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.894535550585862</v>
+        <v>1.882811276432926</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.244346708367873</v>
@@ -7431,7 +7281,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.88548532195837</v>
+        <v>1.879436944213099</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.921451357378062</v>
@@ -7520,7 +7370,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.884563702332581</v>
+        <v>1.880964725008876</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.056646240341696</v>
@@ -7609,7 +7459,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.929924922028777</v>
+        <v>1.916448553735179</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.27630501588914</v>
@@ -7698,7 +7548,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.941569748495127</v>
+        <v>1.934824481895465</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.52388443975571</v>
@@ -7787,7 +7637,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.940946728194547</v>
+        <v>1.932668484422715</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.561486319774401</v>
@@ -7876,7 +7726,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.944179364706393</v>
+        <v>1.934926716834247</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.439423159461375</v>
@@ -7965,7 +7815,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.944788760392222</v>
+        <v>1.9326499764135</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.619783991587089</v>
@@ -8054,7 +7904,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.9499258258872</v>
+        <v>1.940962715949491</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>5.069419815172804</v>
@@ -8143,7 +7993,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.955429819377557</v>
+        <v>1.945170929845632</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>5.02384610094698</v>
@@ -8232,7 +8082,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.956002057389088</v>
+        <v>1.944406160859515</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.556959965645718</v>
@@ -8321,7 +8171,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.95788711072671</v>
+        <v>1.954268051028372</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.677468776462405</v>
@@ -8410,7 +8260,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.95747572351808</v>
+        <v>1.951247974432255</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.217457474061731</v>
@@ -8499,7 +8349,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.96009728203644</v>
+        <v>1.959505422382438</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.348466761653963</v>
@@ -8588,7 +8438,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.960866756118578</v>
+        <v>1.957398698973725</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.320147361969242</v>
@@ -8677,7 +8527,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.961550572589476</v>
+        <v>1.958302648117175</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.640405825234514</v>
@@ -8766,7 +8616,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.964492977665811</v>
+        <v>1.957358798503935</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.98267261832766</v>
@@ -8855,7 +8705,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.884805807903214</v>
+        <v>1.894890160498842</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.918966723065319</v>
@@ -8944,7 +8794,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.86605789665371</v>
+        <v>1.87527634071782</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.029809956213012</v>
@@ -9033,7 +8883,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.848214683879775</v>
+        <v>1.864164735308257</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.958794174875226</v>
@@ -9122,7 +8972,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.778332897904379</v>
+        <v>1.805028748805159</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.531358589044108</v>
@@ -9211,7 +9061,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.71111469611437</v>
+        <v>1.748978492973941</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.575513277831777</v>
@@ -9300,7 +9150,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.535350772338245</v>
+        <v>1.585892779532356</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.872770033315343</v>
@@ -9389,7 +9239,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.529173379612576</v>
+        <v>1.583552387197944</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.873055773344705</v>
@@ -9478,7 +9328,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.53726351706331</v>
+        <v>1.590580420303187</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.897277489481991</v>
@@ -9567,7 +9417,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.517223139447549</v>
+        <v>1.570618750968829</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.893691649827517</v>
@@ -9656,7 +9506,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.527262722864775</v>
+        <v>1.579969545621857</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.921696921107806</v>
@@ -9745,7 +9595,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.487551558114821</v>
+        <v>1.53819390613102</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.945589523637904</v>
@@ -9834,7 +9684,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.46514567118682</v>
+        <v>1.515330921084108</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.928491598040829</v>
@@ -9923,7 +9773,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.436793732954639</v>
+        <v>1.482875225392333</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.933213423769599</v>
@@ -10012,7 +9862,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.418383566311315</v>
+        <v>1.461921174768142</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.896384078625093</v>
@@ -10101,7 +9951,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.397140527672261</v>
+        <v>1.437976625906504</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.828864298758618</v>
@@ -10190,7 +10040,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.390598599087326</v>
+        <v>1.429719816595287</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.881232586847534</v>
@@ -10279,7 +10129,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.384840338902637</v>
+        <v>1.422164142329948</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.862099282049687</v>
@@ -10368,7 +10218,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.37000620847387</v>
+        <v>1.402008380657221</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.839445215040541</v>
@@ -10457,7 +10307,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.372151857921231</v>
+        <v>1.402708199068525</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.813177787097875</v>
@@ -10546,7 +10396,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.378934284371788</v>
+        <v>1.404031972574001</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.724172887501926</v>
@@ -10635,7 +10485,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.483116142177005</v>
+        <v>1.499475122383627</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.388136111453535</v>
@@ -10724,7 +10574,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.455002688164462</v>
+        <v>1.469604501359288</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.315505786535244</v>
@@ -10813,7 +10663,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.424831537703591</v>
+        <v>1.435739838439327</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.321914185613033</v>
@@ -10902,7 +10752,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.428695238667664</v>
+        <v>1.439053008936619</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.234242362654037</v>
@@ -10991,7 +10841,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.375974333459415</v>
+        <v>1.375421068308033</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.161357377327008</v>
@@ -11080,7 +10930,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.412669644758334</v>
+        <v>1.405900417779847</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.221419463771938</v>
@@ -11169,7 +11019,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.434524722554581</v>
+        <v>1.430724428210942</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.634320871579827</v>
@@ -11258,7 +11108,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.465181264071106</v>
+        <v>1.458554399733844</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.365305113386764</v>
@@ -11347,7 +11197,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.457845568762684</v>
+        <v>1.450575727544778</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.514468506297726</v>
@@ -11633,7 +11483,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.674986931444586</v>
+        <v>1.668006928867148</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.351627841241683</v>
@@ -11722,7 +11572,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.687156071555306</v>
+        <v>1.682903828605336</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.182948176211904</v>
@@ -11811,7 +11661,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.726069038056079</v>
+        <v>1.727419713243111</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.381302014712745</v>
@@ -11900,7 +11750,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.755986886226002</v>
+        <v>1.765350645553821</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.487501544165863</v>
@@ -11989,7 +11839,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.766482581792521</v>
+        <v>1.784191784621168</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.663537779695886</v>
@@ -12078,7 +11928,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.789564083917337</v>
+        <v>1.808756667700842</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.978299378160843</v>
@@ -12167,7 +12017,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.815132518655492</v>
+        <v>1.832703981090183</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.64418163870472</v>
@@ -12256,7 +12106,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.815215062742313</v>
+        <v>1.838569314204327</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.727061167548395</v>
@@ -12345,7 +12195,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.819054572664803</v>
+        <v>1.845574031602246</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.315056116690592</v>
@@ -12434,7 +12284,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.839372232280123</v>
+        <v>1.869070611536116</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.828877933415457</v>
@@ -12523,7 +12373,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.848664180395495</v>
+        <v>1.881657891109317</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.603618313627877</v>
@@ -12612,7 +12462,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.862705507049432</v>
+        <v>1.897542621120671</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.669911718290745</v>
@@ -12701,7 +12551,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.894822034997037</v>
+        <v>1.931519268961394</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.889448877970516</v>
@@ -12790,7 +12640,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.926524953631843</v>
+        <v>1.979623254819918</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.007678272194675</v>
@@ -12879,7 +12729,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.931655739259991</v>
+        <v>1.990799026753954</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.314676847273404</v>
@@ -12968,7 +12818,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.951467722548774</v>
+        <v>2.017437410161234</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.422152831567389</v>
@@ -13057,7 +12907,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.955396748234511</v>
+        <v>2.034629855907356</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.664294390483799</v>
@@ -13146,7 +12996,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.951611080862586</v>
+        <v>2.029356375163484</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.572382769875</v>
@@ -13235,7 +13085,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.947492025277525</v>
+        <v>2.0243036083471</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.21801311976018</v>
@@ -13324,7 +13174,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.957104049248602</v>
+        <v>2.031596242639035</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.341435362512674</v>
@@ -13413,7 +13263,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.950603146311205</v>
+        <v>2.021965807351126</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.299466005209845</v>
@@ -13502,7 +13352,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.948858054347428</v>
+        <v>2.017781472398069</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.468356057248403</v>
@@ -13591,7 +13441,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.960299597942148</v>
+        <v>2.029324009796792</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.453747556346735</v>
@@ -13680,7 +13530,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.962095104409393</v>
+        <v>2.033230620107801</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.479736160287636</v>
@@ -13769,7 +13619,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.9596057700363</v>
+        <v>2.0337891083169</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.200570008476681</v>
@@ -13858,7 +13708,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.958030721274157</v>
+        <v>2.026201406909516</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.238830528622266</v>
@@ -13947,7 +13797,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.957551286894846</v>
+        <v>2.025832326695724</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.183729840253934</v>
@@ -14036,7 +13886,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.956461529134367</v>
+        <v>2.027705665466542</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.707382534685922</v>
@@ -14125,7 +13975,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.947928091623037</v>
+        <v>2.012358271845541</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.454157794904324</v>
@@ -14214,7 +14064,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.944928055234724</v>
+        <v>2.008133462370235</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.818363013288833</v>
@@ -14303,7 +14153,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.948573598971143</v>
+        <v>2.002126042176582</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.757912597123482</v>
@@ -14392,7 +14242,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.941416715514529</v>
+        <v>1.987792501739646</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.488668941723168</v>
@@ -14481,7 +14331,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.940799017094523</v>
+        <v>1.986399917091747</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.769259768406471</v>
@@ -14570,7 +14420,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.94498660406611</v>
+        <v>1.992524589782627</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.34147373390119</v>
@@ -14659,7 +14509,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.94260603112465</v>
+        <v>1.987779001073764</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.457694631287415</v>
@@ -14748,7 +14598,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.954901392656734</v>
+        <v>2.007160020481065</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.58366357286534</v>
@@ -14837,7 +14687,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.958987994100745</v>
+        <v>2.010116147918141</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.263410996370051</v>
@@ -14926,7 +14776,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.960246966645481</v>
+        <v>2.00758463966328</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>5.069693062054037</v>
@@ -15015,7 +14865,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.962510986232816</v>
+        <v>2.011870655749898</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.63435968854928</v>
@@ -15104,7 +14954,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.952948938951511</v>
+        <v>2.005260587035219</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.191126491894691</v>
@@ -15193,7 +15043,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.95151328555607</v>
+        <v>2.006590656189989</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.98608833754906</v>
@@ -15282,7 +15132,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.941990693644484</v>
+        <v>1.99783835255706</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.916301652630506</v>
@@ -15371,7 +15221,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.936697608946946</v>
+        <v>1.995868220050533</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.677602651583606</v>
@@ -15460,7 +15310,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.930502435343381</v>
+        <v>1.989080806536855</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.946535136554712</v>
@@ -15549,7 +15399,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.905726887064006</v>
+        <v>1.966737312720091</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.772086358488373</v>
@@ -15638,7 +15488,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.899359207893141</v>
+        <v>1.955927030550081</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.605686137934405</v>
@@ -15727,7 +15577,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.895873507816582</v>
+        <v>1.950987517399478</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.923648197742928</v>
@@ -15816,7 +15666,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.885680515690102</v>
+        <v>1.947636380944013</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.928847082713741</v>
@@ -15905,7 +15755,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.872022865111241</v>
+        <v>1.934857608977107</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.25478782015957</v>
@@ -15994,7 +15844,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.861415480072834</v>
+        <v>1.921862103393559</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.338335060070818</v>
@@ -16083,7 +15933,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.859388464841501</v>
+        <v>1.914521532276864</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.4657536869819</v>
@@ -16172,7 +16022,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.857280774526804</v>
+        <v>1.909729443831147</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.219951490457434</v>
@@ -16261,7 +16111,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.842685864479332</v>
+        <v>1.893965013171752</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.28658809406967</v>
@@ -16350,7 +16200,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.832439057215075</v>
+        <v>1.878326503349637</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.350799945781807</v>
@@ -16439,7 +16289,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.828679160792337</v>
+        <v>1.869201289008835</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.174378969181848</v>
@@ -16528,7 +16378,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.816754793017768</v>
+        <v>1.855902620666686</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.914641223574597</v>
@@ -16617,7 +16467,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.806607231157068</v>
+        <v>1.845156213790461</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.885874942624061</v>
@@ -16706,7 +16556,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.779794105168172</v>
+        <v>1.812124478373718</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.91047834995548</v>
@@ -16795,7 +16645,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.722295256983598</v>
+        <v>1.754215159344704</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.982345922833632</v>
@@ -16884,7 +16734,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.728408610886289</v>
+        <v>1.750734412872789</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.002298574115686</v>
@@ -16973,7 +16823,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.705553507201071</v>
+        <v>1.723387281075585</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.666907512565262</v>
@@ -17062,7 +16912,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.690538631529244</v>
+        <v>1.704253895339549</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.614953007263904</v>
@@ -17151,7 +17001,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.688159370226582</v>
+        <v>1.693885911210544</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.40734331834598</v>
@@ -17240,7 +17090,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.6770342287311</v>
+        <v>1.677593784421072</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.797182490078741</v>
@@ -17329,7 +17179,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.667737674590803</v>
+        <v>1.663937576631054</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.734505601502897</v>
@@ -17418,7 +17268,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.640947049357998</v>
+        <v>1.633958863095218</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.579535657733358</v>
@@ -17507,7 +17357,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.585213735392083</v>
+        <v>1.573380414708642</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.577478768175654</v>
@@ -17596,7 +17446,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.588899757892057</v>
+        <v>1.578845728710105</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.551285372991257</v>
@@ -17882,7 +17732,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.812147068454995</v>
+        <v>1.802547771577256</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.216293585055642</v>
@@ -17971,7 +17821,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.815187869943103</v>
+        <v>1.807598464965845</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.184984587031704</v>
@@ -18060,7 +17910,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.833462072756794</v>
+        <v>1.822380882180675</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.15206820292072</v>
@@ -18149,7 +17999,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.859352846804241</v>
+        <v>1.851136116951748</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.197398443510124</v>
@@ -18238,7 +18088,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.864658216155352</v>
+        <v>1.854403994270353</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.271002306010427</v>
@@ -18327,7 +18177,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.873290365876374</v>
+        <v>1.8619656988084</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.774922684099433</v>
@@ -18416,7 +18266,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.89578937776362</v>
+        <v>1.879623746396703</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.774973125771816</v>
@@ -18505,7 +18355,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.901786273757087</v>
+        <v>1.888444374565859</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.10968536114359</v>
@@ -18594,7 +18444,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.905727706173314</v>
+        <v>1.893727932627908</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.745463271980419</v>
@@ -18683,7 +18533,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.913360223487913</v>
+        <v>1.905177486938661</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.570047776611778</v>
@@ -18772,7 +18622,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.909483107293945</v>
+        <v>1.900292896308699</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.57337649384795</v>
@@ -18861,7 +18711,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.906745116406758</v>
+        <v>1.895735263933892</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.720644204929997</v>
@@ -18950,7 +18800,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.922845244924955</v>
+        <v>1.915824774772298</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.22610402605964</v>
@@ -19039,7 +18889,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.926363558360887</v>
+        <v>1.927791942433454</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.04230952774541</v>
@@ -19128,7 +18978,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.952067383326878</v>
+        <v>1.95286901418026</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.572928429883912</v>
@@ -19217,7 +19067,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.957507695615687</v>
+        <v>1.957306255545271</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.324229978190538</v>
@@ -19306,7 +19156,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.95883116112065</v>
+        <v>1.969277408662035</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.221894843993177</v>
@@ -19395,7 +19245,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.959547773255722</v>
+        <v>1.970603051638255</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.470625373854467</v>
@@ -19484,7 +19334,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.954795343149535</v>
+        <v>1.963511935623812</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.205356794890043</v>
@@ -19573,7 +19423,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.953862339824868</v>
+        <v>1.96366670377949</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.026651366591206</v>
@@ -19662,7 +19512,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.948176141255238</v>
+        <v>1.960277144273635</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.417413689739016</v>
@@ -19751,7 +19601,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.950019580101654</v>
+        <v>1.964155755731697</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.158762683378605</v>
@@ -19840,7 +19690,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.948870344873867</v>
+        <v>1.963003131813718</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.979952860366645</v>
@@ -19929,7 +19779,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.944317835569072</v>
+        <v>1.965178648040892</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.05319169715393</v>
@@ -20018,7 +19868,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.944818501605607</v>
+        <v>1.968170199595557</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.984413820428763</v>
@@ -20107,7 +19957,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.945218862576591</v>
+        <v>1.969925351536072</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.017954803368051</v>
@@ -20196,7 +20046,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.945886933770535</v>
+        <v>1.97144355276756</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.020577856243003</v>
@@ -20285,7 +20135,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.941587116633898</v>
+        <v>1.968499206862152</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.210402291467702</v>
@@ -20374,7 +20224,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.938154892305513</v>
+        <v>1.958906706739016</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.371969362584733</v>
@@ -20463,7 +20313,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.930594466795637</v>
+        <v>1.947283021674587</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.099730430096518</v>
@@ -20552,7 +20402,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.928029044208647</v>
+        <v>1.940649594454674</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.779666153583109</v>
@@ -20641,7 +20491,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.920987349792409</v>
+        <v>1.928236905762179</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.959279435998874</v>
@@ -20730,7 +20580,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.918370083128343</v>
+        <v>1.9219742906842</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.419069126587694</v>
@@ -20819,7 +20669,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.918959008985273</v>
+        <v>1.923475555058757</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.801917127714231</v>
@@ -20908,7 +20758,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.917657666084154</v>
+        <v>1.930590826513832</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.995620724526626</v>
@@ -20997,7 +20847,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.922235496970131</v>
+        <v>1.934301987564229</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.949382120173454</v>
@@ -21086,7 +20936,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.925004722781485</v>
+        <v>1.934981547353019</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.982935470432436</v>
@@ -21175,7 +21025,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.925395006350839</v>
+        <v>1.937151036383419</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.383087120537488</v>
@@ -21264,7 +21114,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.929180979702523</v>
+        <v>1.938805583761179</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.034747037617655</v>
@@ -21353,7 +21203,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.924793293953321</v>
+        <v>1.935418813073245</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.753812443869009</v>
@@ -21442,7 +21292,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.922671020174926</v>
+        <v>1.932064782512495</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.707756928102816</v>
@@ -21531,7 +21381,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.916261448984857</v>
+        <v>1.927740524407025</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>5.058417419612722</v>
@@ -21620,7 +21470,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.89712751169485</v>
+        <v>1.909879379161192</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.67945294837235</v>
@@ -21709,7 +21559,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.880740115483865</v>
+        <v>1.890690523467681</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.590870372375754</v>
@@ -21798,7 +21648,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.861306777944402</v>
+        <v>1.876939776884832</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.858535605939458</v>
@@ -21887,7 +21737,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.863116179751666</v>
+        <v>1.880727930587947</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.034396029790768</v>
@@ -21976,7 +21826,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.860575517428868</v>
+        <v>1.878408452461697</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.690594376397371</v>
@@ -22065,7 +21915,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.846056057036867</v>
+        <v>1.869138130513463</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.738992168646361</v>
@@ -22154,7 +22004,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.843112405631776</v>
+        <v>1.864098381094754</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.771336388535189</v>
@@ -22243,7 +22093,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.817447403825313</v>
+        <v>1.843689521842449</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.838874968948551</v>
@@ -22332,7 +22182,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.811957436909845</v>
+        <v>1.834525700927844</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.118926626288173</v>
@@ -22421,7 +22271,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.796937796189673</v>
+        <v>1.818599142021073</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.765337435908025</v>
@@ -22510,7 +22360,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.781574552642508</v>
+        <v>1.803447707887457</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.745757219975423</v>
@@ -22599,7 +22449,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.768651494735236</v>
+        <v>1.787817463351663</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.66831870862533</v>
@@ -22688,7 +22538,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.750685573467097</v>
+        <v>1.764888465338093</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.772573549095404</v>
@@ -22777,7 +22627,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.744434485104342</v>
+        <v>1.758032217794995</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.641110646662035</v>
@@ -22866,7 +22716,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.739630456227391</v>
+        <v>1.751803604725163</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.601656904005625</v>
@@ -22955,7 +22805,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.74698674344849</v>
+        <v>1.757684139755885</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.470937564923276</v>
@@ -23044,7 +22894,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.748463497320859</v>
+        <v>1.755775737260592</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.654864048065635</v>
@@ -23133,7 +22983,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.753982683625484</v>
+        <v>1.755242827958811</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.36915413280502</v>
@@ -23222,7 +23072,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.731522212443191</v>
+        <v>1.723515844560231</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.116828357276974</v>
@@ -23311,7 +23161,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.726616308666889</v>
+        <v>1.716268170674452</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.26736633271611</v>
@@ -23400,7 +23250,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.721402773333311</v>
+        <v>1.708365954463327</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.152834447400013</v>
@@ -23489,7 +23339,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.709563058180847</v>
+        <v>1.690493406954972</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.949119826777703</v>
@@ -23578,7 +23428,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.726483613879197</v>
+        <v>1.696630370703132</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.099748168596344</v>
@@ -23667,7 +23517,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.727380260462836</v>
+        <v>1.692242719469323</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.249615132736438</v>
@@ -23756,7 +23606,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.728939357334859</v>
+        <v>1.689510674303699</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.409333589429146</v>
@@ -23845,7 +23695,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.726711460019601</v>
+        <v>1.686298729489466</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.556830970178662</v>
@@ -24131,7 +23981,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.841981981192228</v>
+        <v>1.826134858401569</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.378839790713529</v>
@@ -24220,7 +24070,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.846987392156151</v>
+        <v>1.829382077123415</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.248875722416294</v>
@@ -24309,7 +24159,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.869251878385877</v>
+        <v>1.848869561418137</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.317018493281963</v>
@@ -24398,7 +24248,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.868384227247642</v>
+        <v>1.852856248618491</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.317893504163115</v>
@@ -24487,7 +24337,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.870688527846591</v>
+        <v>1.854423244819039</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.40742846350712</v>
@@ -24576,7 +24426,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.880331730048237</v>
+        <v>1.866990361869236</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.840514303531434</v>
@@ -24665,7 +24515,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.887796211090921</v>
+        <v>1.869206962181705</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.594676938418031</v>
@@ -24754,7 +24604,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.893501407761101</v>
+        <v>1.874254348435505</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.639364884929564</v>
@@ -24843,7 +24693,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.893631396116556</v>
+        <v>1.87498536806389</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.628168698654575</v>
@@ -24932,7 +24782,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.90208575554119</v>
+        <v>1.887713988204772</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.712275080591484</v>
@@ -25021,7 +24871,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.902594805060257</v>
+        <v>1.891809336073668</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.696766027958038</v>
@@ -25110,7 +24960,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.905323978377958</v>
+        <v>1.897289983196192</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.522955729967296</v>
@@ -25199,7 +25049,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.922978212303536</v>
+        <v>1.916312088237293</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.692970543954019</v>
@@ -25288,7 +25138,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.925429944852465</v>
+        <v>1.920220250278168</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.628107239669294</v>
@@ -25377,7 +25227,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.939802839427792</v>
+        <v>1.930268701111256</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.939324165027251</v>
@@ -25466,7 +25316,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.941490058814043</v>
+        <v>1.934660003200552</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.134014077182713</v>
@@ -25555,7 +25405,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.93937056910618</v>
+        <v>1.935595014746633</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.99602659369498</v>
@@ -25644,7 +25494,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.938884842599574</v>
+        <v>1.928175396597269</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.543158208556796</v>
@@ -25733,7 +25583,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.944340355871627</v>
+        <v>1.924084095137659</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.077562156062627</v>
@@ -25822,7 +25672,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.945864522425617</v>
+        <v>1.926498158336944</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.826496722739503</v>
@@ -25911,7 +25761,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.945879260740157</v>
+        <v>1.926961645494231</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.898533115577944</v>
@@ -26000,7 +25850,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.949696106257959</v>
+        <v>1.931446168063333</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.340261288101491</v>
@@ -26089,7 +25939,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.946386029406099</v>
+        <v>1.935152772296589</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.495029876557077</v>
@@ -26178,7 +26028,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.946062449053268</v>
+        <v>1.937086804696354</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.67633173047173</v>
@@ -26267,7 +26117,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.947086647077552</v>
+        <v>1.942152544557889</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.07094532562093</v>
@@ -26356,7 +26206,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.941072604879824</v>
+        <v>1.936598231853202</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.936855218519325</v>
@@ -26445,7 +26295,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.935063511285845</v>
+        <v>1.932060580693796</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.776269756996949</v>
@@ -26534,7 +26384,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.932039536802836</v>
+        <v>1.9291946572904</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.449536179975672</v>
@@ -26623,7 +26473,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.927752631518883</v>
+        <v>1.920851630142758</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.970190214197133</v>
@@ -26712,7 +26562,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.929532844865054</v>
+        <v>1.92041341252592</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.49063785149487</v>
@@ -26801,7 +26651,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.933426034962183</v>
+        <v>1.92366158260768</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.823188301593388</v>
@@ -26890,7 +26740,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.935572422628443</v>
+        <v>1.927541480553918</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.472495411149026</v>
@@ -26979,7 +26829,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.938728249693945</v>
+        <v>1.935581652523791</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.966083116634823</v>
@@ -27068,7 +26918,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.938613628193658</v>
+        <v>1.943281081546401</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.46027715021285</v>
@@ -27157,7 +27007,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.934645672069149</v>
+        <v>1.939255673942814</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.445921701558506</v>
@@ -27246,7 +27096,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.934179890820126</v>
+        <v>1.940224555044728</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.950213663948515</v>
@@ -27335,7 +27185,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.935011113456652</v>
+        <v>1.942397289311512</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.440877602927914</v>
@@ -27424,7 +27274,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.935868093788325</v>
+        <v>1.940101838220853</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.961275273172816</v>
@@ -27513,7 +27363,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.938823216679268</v>
+        <v>1.944242928422209</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.595416451305795</v>
@@ -27602,7 +27452,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.92627715852192</v>
+        <v>1.923087032949115</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.365573846385483</v>
@@ -27691,7 +27541,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.92561595763485</v>
+        <v>1.91740750566367</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.911271113556023</v>
@@ -27780,7 +27630,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.917874850565493</v>
+        <v>1.905813002721087</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.543905977836175</v>
@@ -27869,7 +27719,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.902389224323062</v>
+        <v>1.891072811858601</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.162245182340929</v>
@@ -27958,7 +27808,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.888070329678838</v>
+        <v>1.879935930302934</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.734172184474658</v>
@@ -28047,7 +27897,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.862790737038403</v>
+        <v>1.861768432133377</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.128587787003032</v>
@@ -28136,7 +27986,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.861750774925175</v>
+        <v>1.859846161637557</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.394967081722862</v>
@@ -28225,7 +28075,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.859316034137511</v>
+        <v>1.852369808799107</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.979854438294422</v>
@@ -28314,7 +28164,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.844131619971704</v>
+        <v>1.844139425260608</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.061661623136062</v>
@@ -28403,7 +28253,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.848327142552848</v>
+        <v>1.846702244941122</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.155403746110535</v>
@@ -28492,7 +28342,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.826409523121913</v>
+        <v>1.829024771889564</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.323080334106363</v>
@@ -28581,7 +28431,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.813752721732074</v>
+        <v>1.811186448109934</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.156486058673203</v>
@@ -28670,7 +28520,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.790956879887835</v>
+        <v>1.784919253177023</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.994875143691564</v>
@@ -28759,7 +28609,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.773057933479001</v>
+        <v>1.763057913451682</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.907245042153849</v>
@@ -28848,7 +28698,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.754231353383267</v>
+        <v>1.744634722602808</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.045600271591544</v>
@@ -28937,7 +28787,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.752853506684621</v>
+        <v>1.747508301554053</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.917823101185493</v>
@@ -29026,7 +28876,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.751533641679746</v>
+        <v>1.750406600686803</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.812270548895947</v>
@@ -29115,7 +28965,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.762613188899725</v>
+        <v>1.761924987376327</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.991472239288479</v>
@@ -29204,7 +29054,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.776148692239924</v>
+        <v>1.773549612421485</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.872329569258284</v>
@@ -29293,7 +29143,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.782127560940555</v>
+        <v>1.781966334020406</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.980768557288623</v>
@@ -29382,7 +29232,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.801822197635038</v>
+        <v>1.797248824804599</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.787480945430865</v>
@@ -29471,7 +29321,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.792231422136235</v>
+        <v>1.790822776590732</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.006325360452154</v>
@@ -29560,7 +29410,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.792863374130112</v>
+        <v>1.791908800232934</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.851762949245239</v>
@@ -29649,7 +29499,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.801702949424878</v>
+        <v>1.790589270587017</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.787466448230606</v>
@@ -29738,7 +29588,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.791122832224731</v>
+        <v>1.780174362900235</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.258426685250861</v>
@@ -29827,7 +29677,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.810316993796258</v>
+        <v>1.793930657554068</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.043217764049167</v>
@@ -29916,7 +29766,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.820720019037871</v>
+        <v>1.802568177246053</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.825637566223572</v>
@@ -30005,7 +29855,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.833280317526478</v>
+        <v>1.815087580842927</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.71827589274735</v>
@@ -30094,7 +29944,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.830451647881366</v>
+        <v>1.812601981333982</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.52527165361614</v>
@@ -30380,7 +30230,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.465847966832797</v>
+        <v>1.462637074783061</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.446487983163302</v>
@@ -30469,7 +30319,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.449464551559977</v>
+        <v>1.450042947125188</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.376939012845811</v>
@@ -30558,7 +30408,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.455293982366152</v>
+        <v>1.453233982571717</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.385448185798466</v>
@@ -30647,7 +30497,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.461890381947937</v>
+        <v>1.458066369332562</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.304388777932161</v>
@@ -30736,7 +30586,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.448905804841527</v>
+        <v>1.44383531329072</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.355570554380535</v>
@@ -30825,7 +30675,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.463107054630784</v>
+        <v>1.454205948977199</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.363864120680349</v>
@@ -30914,7 +30764,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.48191729773166</v>
+        <v>1.467460658651859</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.305268305132777</v>
@@ -31003,7 +30853,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.477558091343444</v>
+        <v>1.464864057315634</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.276047223436223</v>
@@ -31092,7 +30942,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.47494753658169</v>
+        <v>1.460910838415822</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.253088607405485</v>
@@ -31181,7 +31031,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.483328972393509</v>
+        <v>1.475324420660773</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.311559592847761</v>
@@ -31270,7 +31120,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.490666884884087</v>
+        <v>1.484360341267998</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.315843078274676</v>
@@ -31359,7 +31209,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.501260920070749</v>
+        <v>1.495799509231842</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.318931967772909</v>
@@ -31448,7 +31298,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.555750549301934</v>
+        <v>1.546291723903539</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.131869044819657</v>
@@ -31537,7 +31387,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.617048849516444</v>
+        <v>1.620880382087724</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.721426911876827</v>
@@ -31626,7 +31476,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.644301621791603</v>
+        <v>1.648655756976574</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.451443808332618</v>
@@ -31715,7 +31565,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.662755358210004</v>
+        <v>1.658179321625785</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.31625470226534</v>
@@ -31804,7 +31654,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.688097512329473</v>
+        <v>1.674592586650028</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.019949772710828</v>
@@ -31893,7 +31743,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.68731374376381</v>
+        <v>1.676032911454219</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.029392562878583</v>
@@ -31982,7 +31832,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.690415048772344</v>
+        <v>1.674211894765568</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.819747699614791</v>
@@ -32071,7 +31921,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.726454440817795</v>
+        <v>1.695108250828023</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.356852661216821</v>
@@ -32160,7 +32010,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.733393106084631</v>
+        <v>1.701115973079076</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.733749644430965</v>
@@ -32249,7 +32099,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.73389943762656</v>
+        <v>1.706263572484471</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.948654338743434</v>
@@ -32338,7 +32188,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.746983840882814</v>
+        <v>1.72157075360543</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.459343036658868</v>
@@ -32427,7 +32277,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.752287349514478</v>
+        <v>1.729245950877063</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.405357845897211</v>
@@ -32516,7 +32366,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.760314393230673</v>
+        <v>1.738272366460718</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.631068311206607</v>
@@ -32605,7 +32455,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.764694896400179</v>
+        <v>1.726997594599717</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.582787479511883</v>
@@ -32694,7 +32544,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.770149407885872</v>
+        <v>1.728588149388077</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.338737501832966</v>
@@ -32783,7 +32633,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.774169982033345</v>
+        <v>1.731946575074937</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.438600197685309</v>
@@ -32872,7 +32722,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.771708677013426</v>
+        <v>1.724542435810124</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.288501421307529</v>
@@ -32961,7 +32811,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.774316806890365</v>
+        <v>1.727473931023808</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.339574615637209</v>
@@ -33050,7 +32900,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.781927059826574</v>
+        <v>1.737754478200688</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.646486353462289</v>
@@ -33139,7 +32989,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.798563594212161</v>
+        <v>1.753758110450083</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.103365678641736</v>
@@ -33228,7 +33078,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.810311215938029</v>
+        <v>1.764211934444345</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.333336767837419</v>
@@ -33317,7 +33167,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.814239553631736</v>
+        <v>1.776806843634652</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.447686058555408</v>
@@ -33406,7 +33256,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.812078728565345</v>
+        <v>1.780657218815741</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.766146085596903</v>
@@ -33495,7 +33345,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.837121701628644</v>
+        <v>1.81019049044438</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.656379776379803</v>
@@ -33584,7 +33434,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.856960430275548</v>
+        <v>1.833701663596591</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.513586805358244</v>
@@ -33673,7 +33523,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.865127073349919</v>
+        <v>1.841196305217188</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.380092116635772</v>
@@ -33762,7 +33612,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.86908359910259</v>
+        <v>1.842805198964398</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.639768883192663</v>
@@ -33851,7 +33701,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.843010302727026</v>
+        <v>1.81792753690457</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.54937963667477</v>
@@ -33940,7 +33790,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.835704324149337</v>
+        <v>1.818635163695562</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.50378324443328</v>
@@ -34029,7 +33879,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.811191663277773</v>
+        <v>1.805069990340999</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.228747206484714</v>
@@ -34118,7 +33968,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.806844064535084</v>
+        <v>1.800000067003606</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.557068696048625</v>
@@ -34207,7 +34057,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.800265651123738</v>
+        <v>1.798200441166866</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.199454180258985</v>
@@ -34296,7 +34146,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.767513935273455</v>
+        <v>1.769444094812526</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.242479159377681</v>
@@ -34385,7 +34235,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.751031266633472</v>
+        <v>1.756016114084838</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.364913488829655</v>
@@ -34474,7 +34324,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.740555105262968</v>
+        <v>1.742855616967286</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.440932770507501</v>
@@ -34563,7 +34413,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.728372509385006</v>
+        <v>1.733661245229048</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.477640962151956</v>
@@ -34652,7 +34502,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.680039644932094</v>
+        <v>1.68949522224862</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.891641731335722</v>
@@ -34741,7 +34591,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.660835503368935</v>
+        <v>1.670943957062573</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.787774529471523</v>
@@ -34830,7 +34680,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.640771205878566</v>
+        <v>1.64261237907441</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.541747098519754</v>
@@ -34919,7 +34769,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.611630400724864</v>
+        <v>1.60272809310159</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.711462131119949</v>
@@ -35008,7 +34858,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.580968896520659</v>
+        <v>1.565222323699465</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.594307514935477</v>
@@ -35097,7 +34947,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.554010253583509</v>
+        <v>1.541527060788525</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.464379507660579</v>
@@ -35186,7 +35036,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.554798112138236</v>
+        <v>1.539860775750226</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.329027606835865</v>
@@ -35275,7 +35125,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.568947357320243</v>
+        <v>1.554719683680068</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.536883080924127</v>
@@ -35364,7 +35214,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.575705677820176</v>
+        <v>1.555763346897355</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.625110751375451</v>
@@ -35453,7 +35303,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.573466553295957</v>
+        <v>1.551000539966662</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.616570450152777</v>
@@ -35542,7 +35392,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.535027330211586</v>
+        <v>1.515579788592144</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.471736787058284</v>
@@ -35631,7 +35481,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.556760231175574</v>
+        <v>1.534249247881165</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.558587989302225</v>
@@ -35720,7 +35570,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.563915542924974</v>
+        <v>1.540438934635425</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.483780720472026</v>
@@ -35809,7 +35659,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.566920285386182</v>
+        <v>1.549767612066018</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.499461998464048</v>
@@ -35898,7 +35748,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.575495910087801</v>
+        <v>1.556451846663522</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.55835181107625</v>
@@ -35987,7 +35837,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.601357726060731</v>
+        <v>1.578934664422065</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.760959163064806</v>
@@ -36076,7 +35926,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.624212086684197</v>
+        <v>1.601526624391997</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.494545804537601</v>
@@ -36165,7 +36015,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.627976332798496</v>
+        <v>1.6057137905012</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.526885975065231</v>
@@ -36254,7 +36104,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.61713546752037</v>
+        <v>1.602709795494863</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.617953901808976</v>
@@ -36343,7 +36193,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.624621762427115</v>
+        <v>1.609188034665785</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.704640619113607</v>
@@ -36629,7 +36479,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.741822334785812</v>
+        <v>1.762782947565275</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.447018272245051</v>
@@ -36718,7 +36568,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.750291380860038</v>
+        <v>1.767225025060025</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.42929734465534</v>
@@ -36807,7 +36657,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.781872449904927</v>
+        <v>1.795322107667599</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.309346611525218</v>
@@ -36896,7 +36746,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.795925392990768</v>
+        <v>1.813535718074005</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.421703006975708</v>
@@ -36985,7 +36835,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.804304024668297</v>
+        <v>1.821831495316215</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.510532659650125</v>
@@ -37074,7 +36924,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.815645174754321</v>
+        <v>1.833821270784481</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.974137780183799</v>
@@ -37163,7 +37013,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.80818662837867</v>
+        <v>1.820150033431364</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.175181666600288</v>
@@ -37252,7 +37102,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.81971692180075</v>
+        <v>1.829700901894306</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.824891530120393</v>
@@ -37341,7 +37191,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.82232543038494</v>
+        <v>1.831296844952607</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.309321880576326</v>
@@ -37430,7 +37280,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.833611733516159</v>
+        <v>1.844611143233771</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.316835717620226</v>
@@ -37519,7 +37369,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.827873581147383</v>
+        <v>1.83746455307785</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.511234106522351</v>
@@ -37608,7 +37458,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.825480235874795</v>
+        <v>1.839610218483251</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.163956929789873</v>
@@ -37697,7 +37547,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.866990310872273</v>
+        <v>1.877870151188284</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.822608425304136</v>
@@ -37786,7 +37636,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.866312606194611</v>
+        <v>1.875899522340921</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.968351085068735</v>
@@ -37875,7 +37725,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.911034138027276</v>
+        <v>1.913852580695358</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.228916608641617</v>
@@ -37964,7 +37814,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.91586104562796</v>
+        <v>1.918405100974064</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.861726162104623</v>
@@ -38053,7 +37903,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.916410283747023</v>
+        <v>1.922485793299314</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.221519822241277</v>
@@ -38142,7 +37992,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.915364159877546</v>
+        <v>1.918935883422529</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.812445875797951</v>
@@ -38231,7 +38081,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.949077710466923</v>
+        <v>1.937136240147886</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.438721508181941</v>
@@ -38320,7 +38170,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.952127943821667</v>
+        <v>1.940529959440519</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.484738308182115</v>
@@ -38409,7 +38259,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.947420349985508</v>
+        <v>1.942103844532888</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.260270534612451</v>
@@ -38498,7 +38348,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.971679691715996</v>
+        <v>1.967425817676755</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>5.255055489787434</v>
@@ -38587,7 +38437,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.969294136114345</v>
+        <v>1.970449304134374</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.505525144938359</v>
@@ -38676,7 +38526,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.973365548702263</v>
+        <v>1.978632658825546</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.526843903577485</v>
@@ -38765,7 +38615,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.968514881884925</v>
+        <v>1.974644982809119</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>5.212288497889086</v>
@@ -38854,7 +38704,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.980216878631139</v>
+        <v>1.983550306544023</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.975076895107649</v>
@@ -38943,7 +38793,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.97900710702504</v>
+        <v>1.983218499164543</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.495404286403397</v>
@@ -39032,7 +38882,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.974997457438714</v>
+        <v>1.978507743179168</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.428024721264183</v>
@@ -39121,7 +38971,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.973140828606548</v>
+        <v>1.977974508413467</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.005388725947586</v>
@@ -39210,7 +39060,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.972206269677508</v>
+        <v>1.978712371482365</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>5.673217111484887</v>
@@ -39299,7 +39149,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.973762295555112</v>
+        <v>1.984695862957571</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.988267828570867</v>
@@ -39388,7 +39238,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.97675730080982</v>
+        <v>1.98944752146335</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>5.066009315021482</v>
@@ -39477,7 +39327,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.972869765444441</v>
+        <v>1.988321328103128</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.852917822364009</v>
@@ -39566,7 +39416,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.972879389577339</v>
+        <v>1.989123842127639</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.784375603533526</v>
@@ -39655,7 +39505,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.973197722543211</v>
+        <v>1.989294922507522</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.467221131361585</v>
@@ -39744,7 +39594,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.974295546245955</v>
+        <v>1.984704274978421</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.675689755134095</v>
@@ -39833,7 +39683,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.969890011005447</v>
+        <v>1.975980870106984</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.992402796589243</v>
@@ -39922,7 +39772,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.972096248058243</v>
+        <v>1.973184526253569</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>5.746705241438475</v>
@@ -40011,7 +39861,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.965452367752864</v>
+        <v>1.964020984597345</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.834079164226567</v>
@@ -40100,7 +39950,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.92760428998496</v>
+        <v>1.933134153935289</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.041329943449326</v>
@@ -40189,7 +40039,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.9076174649865</v>
+        <v>1.912405117080511</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.861245300603239</v>
@@ -40278,7 +40128,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.877786714309699</v>
+        <v>1.887106995753494</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.936431028883698</v>
@@ -40367,7 +40217,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.817664202825058</v>
+        <v>1.837328897615739</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.683668583209872</v>
@@ -40456,7 +40306,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.765749374024204</v>
+        <v>1.793475065533901</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.610058466002816</v>
@@ -40545,7 +40395,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.728696673609931</v>
+        <v>1.756068428911291</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.698104821471586</v>
@@ -40634,7 +40484,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.724770173036332</v>
+        <v>1.756803799740971</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.772008646600955</v>
@@ -40723,7 +40573,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.73105571544585</v>
+        <v>1.758314183495115</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.787255155275839</v>
@@ -40812,7 +40662,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.690951804856282</v>
+        <v>1.722731948414786</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.000924571265154</v>
@@ -40901,7 +40751,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.700973517375206</v>
+        <v>1.734688615698008</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.925550128418633</v>
@@ -40990,7 +40840,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.648119130648527</v>
+        <v>1.685317114231702</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.876788202491571</v>
@@ -41079,7 +40929,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.608239266934445</v>
+        <v>1.650716875608652</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.848572412143735</v>
@@ -41168,7 +41018,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.566485089006845</v>
+        <v>1.60951253255189</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.863051450297672</v>
@@ -41257,7 +41107,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.541525504271291</v>
+        <v>1.582532655843276</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.850719611448102</v>
@@ -41346,7 +41196,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.51179841599092</v>
+        <v>1.554896937043167</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.85178318310527</v>
@@ -41435,7 +41285,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.505516556754721</v>
+        <v>1.547247136299337</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.748163450450174</v>
@@ -41524,7 +41374,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.511276390274778</v>
+        <v>1.554500489357165</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.797208509970806</v>
@@ -41613,7 +41463,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.529043781101968</v>
+        <v>1.570300734401792</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.807097889163087</v>
@@ -41702,7 +41552,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.552276569025298</v>
+        <v>1.5888443728082</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.757273723179871</v>
@@ -41791,7 +41641,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.571500082270305</v>
+        <v>1.608689349073766</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.877790456745848</v>
@@ -41880,7 +41730,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.592367381059975</v>
+        <v>1.630988169779605</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.752487363355572</v>
@@ -41969,7 +41819,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.578184617667844</v>
+        <v>1.618230689500729</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.852626052541914</v>
@@ -42058,7 +41908,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.568306924647221</v>
+        <v>1.610489135534876</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.729632491686036</v>
@@ -42147,7 +41997,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.591662331253705</v>
+        <v>1.632823386512235</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.815806548594114</v>
@@ -42236,7 +42086,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.552601378093436</v>
+        <v>1.592170333476662</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.555084478790079</v>
@@ -42325,7 +42175,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.581089482085749</v>
+        <v>1.617897029995585</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.439464117397722</v>
@@ -42414,7 +42264,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.612476690316193</v>
+        <v>1.646146125815541</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.075059476329973</v>
@@ -42503,7 +42353,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.657119337121856</v>
+        <v>1.685654432085091</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.75737835808282</v>
@@ -42592,7 +42442,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.655441889922347</v>
+        <v>1.685805383978351</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.935812504739221</v>
